--- a/template_for_TURBO_plot.xlsx
+++ b/template_for_TURBO_plot.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="TURBO_score" sheetId="1" state="visible" r:id="rId3"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t xml:space="preserve">benefit</t>
   </si>
@@ -372,8 +372,8 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="17.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -390,59 +390,29 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -463,7 +433,7 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O12" activeCellId="0" sqref="O12"/>
     </sheetView>
   </sheetViews>
